--- a/Crawling/music/crawled_data/mod_vibe/live_vibe_20220407.xlsx
+++ b/Crawling/music/crawled_data/mod_vibe/live_vibe_20220407.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="274">
   <si>
     <t>사이트</t>
   </si>
@@ -1426,6 +1426,12 @@
       <c r="F9" t="s">
         <v>182</v>
       </c>
+      <c r="G9" t="s">
+        <v>239</v>
+      </c>
+      <c r="H9" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
@@ -2173,6 +2179,12 @@
       </c>
       <c r="F38" t="s">
         <v>196</v>
+      </c>
+      <c r="G38" t="s">
+        <v>239</v>
+      </c>
+      <c r="H38" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="39" spans="1:8">

--- a/Crawling/music/crawled_data/mod_vibe/live_vibe_20220407.xlsx
+++ b/Crawling/music/crawled_data/mod_vibe/live_vibe_20220407.xlsx
@@ -40,7 +40,7 @@
     <t>소속사_분류</t>
   </si>
   <si>
-    <t>vibe</t>
+    <t>Vibe</t>
   </si>
   <si>
     <t>2022-04-07</t>

--- a/Crawling/music/crawled_data/mod_vibe/live_vibe_20220407.xlsx
+++ b/Crawling/music/crawled_data/mod_vibe/live_vibe_20220407.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="274">
   <si>
     <t>사이트</t>
   </si>
@@ -1193,7 +1193,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H102"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3177,22 +3177,22 @@
         <v>9</v>
       </c>
       <c r="C77">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D77" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E77" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F77" t="s">
-        <v>214</v>
+        <v>85</v>
       </c>
       <c r="G77" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="H77" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3203,22 +3203,22 @@
         <v>9</v>
       </c>
       <c r="C78">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D78" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E78" t="s">
-        <v>162</v>
+        <v>110</v>
       </c>
       <c r="F78" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G78" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="H78" t="s">
-        <v>258</v>
+        <v>234</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3229,22 +3229,22 @@
         <v>9</v>
       </c>
       <c r="C79">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D79" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E79" t="s">
-        <v>110</v>
+        <v>163</v>
       </c>
       <c r="F79" t="s">
-        <v>86</v>
+        <v>215</v>
       </c>
       <c r="G79" t="s">
-        <v>234</v>
+        <v>270</v>
       </c>
       <c r="H79" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3255,22 +3255,22 @@
         <v>9</v>
       </c>
       <c r="C80">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D80" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E80" t="s">
-        <v>163</v>
+        <v>112</v>
       </c>
       <c r="F80" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G80" t="s">
-        <v>270</v>
+        <v>236</v>
       </c>
       <c r="H80" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3281,22 +3281,22 @@
         <v>9</v>
       </c>
       <c r="C81">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D81" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E81" t="s">
-        <v>112</v>
+        <v>164</v>
       </c>
       <c r="F81" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G81" t="s">
-        <v>236</v>
+        <v>271</v>
       </c>
       <c r="H81" t="s">
-        <v>236</v>
+        <v>258</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3307,19 +3307,19 @@
         <v>9</v>
       </c>
       <c r="C82">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D82" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E82" t="s">
-        <v>164</v>
+        <v>125</v>
       </c>
       <c r="F82" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G82" t="s">
-        <v>271</v>
+        <v>247</v>
       </c>
       <c r="H82" t="s">
         <v>258</v>
@@ -3333,19 +3333,19 @@
         <v>9</v>
       </c>
       <c r="C83">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D83" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E83" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="F83" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G83" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="H83" t="s">
         <v>258</v>
@@ -3359,19 +3359,19 @@
         <v>9</v>
       </c>
       <c r="C84">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D84" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E84" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="F84" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G84" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="H84" t="s">
         <v>258</v>
@@ -3385,19 +3385,19 @@
         <v>9</v>
       </c>
       <c r="C85">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D85" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E85" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="F85" t="s">
-        <v>220</v>
+        <v>93</v>
       </c>
       <c r="G85" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="H85" t="s">
         <v>258</v>
@@ -3411,19 +3411,19 @@
         <v>9</v>
       </c>
       <c r="C86">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D86" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E86" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="F86" t="s">
-        <v>93</v>
+        <v>221</v>
       </c>
       <c r="G86" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="H86" t="s">
         <v>258</v>
@@ -3437,22 +3437,16 @@
         <v>9</v>
       </c>
       <c r="C87">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D87" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E87" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="F87" t="s">
-        <v>221</v>
-      </c>
-      <c r="G87" t="s">
-        <v>248</v>
-      </c>
-      <c r="H87" t="s">
-        <v>258</v>
+        <v>222</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3463,16 +3457,22 @@
         <v>9</v>
       </c>
       <c r="C88">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D88" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E88" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F88" t="s">
-        <v>222</v>
+        <v>223</v>
+      </c>
+      <c r="G88" t="s">
+        <v>252</v>
+      </c>
+      <c r="H88" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3483,22 +3483,22 @@
         <v>9</v>
       </c>
       <c r="C89">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D89" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E89" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F89" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G89" t="s">
-        <v>252</v>
+        <v>273</v>
       </c>
       <c r="H89" t="s">
-        <v>252</v>
+        <v>273</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3509,22 +3509,22 @@
         <v>9</v>
       </c>
       <c r="C90">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D90" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E90" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F90" t="s">
-        <v>224</v>
+        <v>98</v>
       </c>
       <c r="G90" t="s">
-        <v>273</v>
+        <v>242</v>
       </c>
       <c r="H90" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3535,19 +3535,19 @@
         <v>9</v>
       </c>
       <c r="C91">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D91" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E91" t="s">
-        <v>169</v>
+        <v>115</v>
       </c>
       <c r="F91" t="s">
-        <v>98</v>
+        <v>225</v>
       </c>
       <c r="G91" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="H91" t="s">
         <v>258</v>
@@ -3561,19 +3561,19 @@
         <v>9</v>
       </c>
       <c r="C92">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D92" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E92" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="F92" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G92" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="H92" t="s">
         <v>258</v>
@@ -3587,19 +3587,19 @@
         <v>9</v>
       </c>
       <c r="C93">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D93" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E93" t="s">
-        <v>127</v>
+        <v>170</v>
       </c>
       <c r="F93" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G93" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="H93" t="s">
         <v>258</v>
@@ -3613,19 +3613,19 @@
         <v>9</v>
       </c>
       <c r="C94">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D94" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E94" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F94" t="s">
-        <v>227</v>
+        <v>102</v>
       </c>
       <c r="G94" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="H94" t="s">
         <v>258</v>
@@ -3639,16 +3639,16 @@
         <v>9</v>
       </c>
       <c r="C95">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D95" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E95" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F95" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G95" t="s">
         <v>242</v>
@@ -3665,19 +3665,19 @@
         <v>9</v>
       </c>
       <c r="C96">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D96" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E96" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F96" t="s">
-        <v>103</v>
+        <v>228</v>
       </c>
       <c r="G96" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="H96" t="s">
         <v>258</v>
@@ -3691,22 +3691,16 @@
         <v>9</v>
       </c>
       <c r="C97">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D97" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E97" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F97" t="s">
-        <v>228</v>
-      </c>
-      <c r="G97" t="s">
-        <v>248</v>
-      </c>
-      <c r="H97" t="s">
-        <v>258</v>
+        <v>229</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3717,16 +3711,22 @@
         <v>9</v>
       </c>
       <c r="C98">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D98" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E98" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
       <c r="F98" t="s">
-        <v>229</v>
+        <v>230</v>
+      </c>
+      <c r="G98" t="s">
+        <v>260</v>
+      </c>
+      <c r="H98" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3737,22 +3737,22 @@
         <v>9</v>
       </c>
       <c r="C99">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D99" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E99" t="s">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="F99" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G99" t="s">
-        <v>260</v>
+        <v>234</v>
       </c>
       <c r="H99" t="s">
-        <v>258</v>
+        <v>234</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3763,22 +3763,22 @@
         <v>9</v>
       </c>
       <c r="C100">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D100" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E100" t="s">
-        <v>175</v>
+        <v>129</v>
       </c>
       <c r="F100" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G100" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="H100" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3789,41 +3789,15 @@
         <v>9</v>
       </c>
       <c r="C101">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D101" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E101" t="s">
-        <v>129</v>
+        <v>176</v>
       </c>
       <c r="F101" t="s">
-        <v>232</v>
-      </c>
-      <c r="G101" t="s">
-        <v>250</v>
-      </c>
-      <c r="H101" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
-      <c r="A102" t="s">
-        <v>8</v>
-      </c>
-      <c r="B102" t="s">
-        <v>9</v>
-      </c>
-      <c r="C102">
-        <v>100</v>
-      </c>
-      <c r="D102" t="s">
-        <v>109</v>
-      </c>
-      <c r="E102" t="s">
-        <v>176</v>
-      </c>
-      <c r="F102" t="s">
         <v>233</v>
       </c>
     </row>

--- a/Crawling/music/crawled_data/mod_vibe/live_vibe_20220407.xlsx
+++ b/Crawling/music/crawled_data/mod_vibe/live_vibe_20220407.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="273">
   <si>
     <t>사이트</t>
   </si>
@@ -760,7 +760,7 @@
     <t>EDAM</t>
   </si>
   <si>
-    <t>개인</t>
+    <t>기타</t>
   </si>
   <si>
     <t>물고기뮤직</t>
@@ -788,9 +788,6 @@
   </si>
   <si>
     <t>mmm management</t>
-  </si>
-  <si>
-    <t>기타</t>
   </si>
   <si>
     <t>에버그로우</t>
@@ -1274,7 +1271,7 @@
         <v>235</v>
       </c>
       <c r="H3" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1326,7 +1323,7 @@
         <v>237</v>
       </c>
       <c r="H5" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1378,7 +1375,7 @@
         <v>238</v>
       </c>
       <c r="H7" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1404,7 +1401,7 @@
         <v>239</v>
       </c>
       <c r="H8" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1430,7 +1427,7 @@
         <v>239</v>
       </c>
       <c r="H9" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1482,7 +1479,7 @@
         <v>241</v>
       </c>
       <c r="H11" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1508,7 +1505,7 @@
         <v>242</v>
       </c>
       <c r="H12" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1534,7 +1531,7 @@
         <v>243</v>
       </c>
       <c r="H13" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1560,7 +1557,7 @@
         <v>244</v>
       </c>
       <c r="H14" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1586,7 +1583,7 @@
         <v>245</v>
       </c>
       <c r="H15" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1612,7 +1609,7 @@
         <v>246</v>
       </c>
       <c r="H16" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1638,7 +1635,7 @@
         <v>247</v>
       </c>
       <c r="H17" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1690,7 +1687,7 @@
         <v>247</v>
       </c>
       <c r="H19" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1716,7 +1713,7 @@
         <v>248</v>
       </c>
       <c r="H20" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1742,7 +1739,7 @@
         <v>249</v>
       </c>
       <c r="H21" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1794,7 +1791,7 @@
         <v>250</v>
       </c>
       <c r="H23" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1820,7 +1817,7 @@
         <v>247</v>
       </c>
       <c r="H24" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1846,7 +1843,7 @@
         <v>242</v>
       </c>
       <c r="H25" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1872,7 +1869,7 @@
         <v>242</v>
       </c>
       <c r="H26" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1898,7 +1895,7 @@
         <v>251</v>
       </c>
       <c r="H27" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1924,7 +1921,7 @@
         <v>241</v>
       </c>
       <c r="H28" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2028,7 +2025,7 @@
         <v>235</v>
       </c>
       <c r="H32" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2106,7 +2103,7 @@
         <v>253</v>
       </c>
       <c r="H35" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2184,7 +2181,7 @@
         <v>239</v>
       </c>
       <c r="H38" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2262,7 +2259,7 @@
         <v>255</v>
       </c>
       <c r="H41" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2288,7 +2285,7 @@
         <v>256</v>
       </c>
       <c r="H42" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2314,7 +2311,7 @@
         <v>257</v>
       </c>
       <c r="H43" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2363,10 +2360,10 @@
         <v>143</v>
       </c>
       <c r="G45" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="H45" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2389,10 +2386,10 @@
         <v>201</v>
       </c>
       <c r="G46" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H46" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2444,7 +2441,7 @@
         <v>247</v>
       </c>
       <c r="H48" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2470,7 +2467,7 @@
         <v>247</v>
       </c>
       <c r="H49" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2493,10 +2490,10 @@
         <v>202</v>
       </c>
       <c r="G50" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H50" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2522,7 +2519,7 @@
         <v>247</v>
       </c>
       <c r="H51" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2545,10 +2542,10 @@
         <v>60</v>
       </c>
       <c r="G52" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H52" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2574,7 +2571,7 @@
         <v>246</v>
       </c>
       <c r="H53" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2600,7 +2597,7 @@
         <v>248</v>
       </c>
       <c r="H54" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2652,7 +2649,7 @@
         <v>242</v>
       </c>
       <c r="H56" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2675,10 +2672,10 @@
         <v>205</v>
       </c>
       <c r="G57" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H57" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2704,7 +2701,7 @@
         <v>248</v>
       </c>
       <c r="H58" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2750,7 +2747,7 @@
         <v>247</v>
       </c>
       <c r="H60" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2773,10 +2770,10 @@
         <v>207</v>
       </c>
       <c r="G61" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H61" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2851,10 +2848,10 @@
         <v>72</v>
       </c>
       <c r="G64" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H64" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2880,7 +2877,7 @@
         <v>245</v>
       </c>
       <c r="H65" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2932,7 +2929,7 @@
         <v>248</v>
       </c>
       <c r="H67" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2955,10 +2952,10 @@
         <v>211</v>
       </c>
       <c r="G68" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H68" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2981,10 +2978,10 @@
         <v>77</v>
       </c>
       <c r="G69" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H69" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3007,10 +3004,10 @@
         <v>212</v>
       </c>
       <c r="G70" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H70" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3036,7 +3033,7 @@
         <v>248</v>
       </c>
       <c r="H71" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3062,7 +3059,7 @@
         <v>247</v>
       </c>
       <c r="H72" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3088,7 +3085,7 @@
         <v>242</v>
       </c>
       <c r="H73" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3111,10 +3108,10 @@
         <v>82</v>
       </c>
       <c r="G74" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H74" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3137,10 +3134,10 @@
         <v>213</v>
       </c>
       <c r="G75" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H75" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3166,7 +3163,7 @@
         <v>241</v>
       </c>
       <c r="H76" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3192,7 +3189,7 @@
         <v>245</v>
       </c>
       <c r="H77" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3241,10 +3238,10 @@
         <v>215</v>
       </c>
       <c r="G79" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H79" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3293,10 +3290,10 @@
         <v>217</v>
       </c>
       <c r="G81" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H81" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3322,7 +3319,7 @@
         <v>247</v>
       </c>
       <c r="H82" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3348,7 +3345,7 @@
         <v>255</v>
       </c>
       <c r="H83" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3371,10 +3368,10 @@
         <v>220</v>
       </c>
       <c r="G84" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H84" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3397,10 +3394,10 @@
         <v>93</v>
       </c>
       <c r="G85" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H85" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3426,7 +3423,7 @@
         <v>248</v>
       </c>
       <c r="H86" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3495,10 +3492,10 @@
         <v>224</v>
       </c>
       <c r="G89" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H89" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3524,7 +3521,7 @@
         <v>242</v>
       </c>
       <c r="H90" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3550,7 +3547,7 @@
         <v>238</v>
       </c>
       <c r="H91" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3576,7 +3573,7 @@
         <v>249</v>
       </c>
       <c r="H92" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3599,10 +3596,10 @@
         <v>227</v>
       </c>
       <c r="G93" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="H93" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3628,7 +3625,7 @@
         <v>242</v>
       </c>
       <c r="H94" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3654,7 +3651,7 @@
         <v>242</v>
       </c>
       <c r="H95" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3680,7 +3677,7 @@
         <v>248</v>
       </c>
       <c r="H96" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3723,10 +3720,10 @@
         <v>230</v>
       </c>
       <c r="G98" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H98" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3778,7 +3775,7 @@
         <v>250</v>
       </c>
       <c r="H100" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="101" spans="1:8">
